--- a/bookings.xlsx
+++ b/bookings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,106 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Marriot</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>hanoi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vietnam</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>hanoi</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>khai do</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>09999999999</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>sandeerighthere@gmail.com</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>hehe</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>The Old Cider House</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nether Stowey</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Deluxe Double Room with Shower</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>khaido</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0940920394</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>sandeerighthere@gmail.com</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>đasa</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bookings.xlsx
+++ b/bookings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,6 +635,206 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Marriot</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>hanoi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vietnam</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>hanoi</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>khaido</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>099999999999</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sandeerighthere@gmail.com</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>dưqdw</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>The Old Cider House</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nether Stowey</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Double Room</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>khaido</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>09983492839</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>sandeerighthere@gmail.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fwefw</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Apollo Hotel London</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Standard Triple Room</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1055.92</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>khaido</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0943989898</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>sandeerighthere@gmail.com</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ưefwf</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The Old Cider House</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nether Stowey</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Double Room</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>khaido</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0979697967</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>sandeerighthere@gmail.com</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>dfwdf</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
